--- a/poker/A-specs.xlsx
+++ b/poker/A-specs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="7956" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Définition</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Qui</t>
   </si>
   <si>
-    <t>Acceptation</t>
-  </si>
-  <si>
     <t>Début</t>
   </si>
   <si>
@@ -81,10 +78,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>PF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Difficulté (F,PF)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -98,6 +91,22 @@
   </si>
   <si>
     <t># Release</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1-2crt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2-2cc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.0-2ccc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subversion</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -198,10 +207,10 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -564,36 +573,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="21.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="34.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4" t="s">
@@ -609,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -633,31 +642,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="11">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10">
         <v>43146</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>43150</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -666,23 +675,29 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="H4" s="10">
+        <v>43152</v>
+      </c>
+      <c r="I4" s="10">
+        <v>43152</v>
+      </c>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
@@ -691,15 +706,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F5" s="4">
         <v>1</v>
       </c>
@@ -714,15 +731,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="4">
         <v>2</v>
       </c>
@@ -733,7 +752,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1">
@@ -772,6 +791,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{367C7A5C-2C1D-41F6-85D0-F390032585AF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -784,18 +815,6 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{367C7A5C-2C1D-41F6-85D0-F390032585AF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="PF">
@@ -838,16 +857,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5328F369-B253-4A24-B8A0-EB1CFFF15406}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{367C7A5C-2C1D-41F6-85D0-F390032585AF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -860,6 +869,16 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{5328F369-B253-4A24-B8A0-EB1CFFF15406}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
           <xm:sqref>C12:C13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>

--- a/poker/A-specs.xlsx
+++ b/poker/A-specs.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-space\poker\poker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="7956" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>Définition</t>
   </si>
@@ -39,6 +35,15 @@
     <t>Qui</t>
   </si>
   <si>
+    <t>Subversion</t>
+  </si>
+  <si>
+    <t># Release</t>
+  </si>
+  <si>
+    <t>Difficulté (F,PF)</t>
+  </si>
+  <si>
     <t>Début</t>
   </si>
   <si>
@@ -54,67 +59,53 @@
     <t>1 carte pour main, pas de coulour et comparaison</t>
   </si>
   <si>
+    <t>Huang, Liu, Wu</t>
+  </si>
+  <si>
+    <t>v1.0-1crt</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
     <t>2 cartes</t>
   </si>
   <si>
+    <t>2 cartes, pas de couleur</t>
+  </si>
+  <si>
+    <t>v1.1-2crt</t>
+  </si>
+  <si>
+    <t>2 cartes, pas de couleur,avec la comparaison</t>
+  </si>
+  <si>
+    <t>v1.2-2cc</t>
+  </si>
+  <si>
     <t>2 cartes, avec la couleur et la comparaison</t>
   </si>
   <si>
+    <t>v2.0-2ccc</t>
+  </si>
+  <si>
     <t>Avancement des releases</t>
-  </si>
-  <si>
-    <t>Huang, Liu, Wu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cartes, pas de couleur,avec la comparaison</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cartes, pas de couleur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Difficulté (F,PF)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0-1crt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t># Release</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.1-2crt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.2-2cc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.0-2ccc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Subversion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -137,13 +128,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,12 +288,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -180,9 +502,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -193,6 +757,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -200,6 +767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -207,69 +775,59 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -291,12 +849,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -305,9 +860,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -565,211 +1117,217 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="21.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.3666666666667" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.6333333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.9083333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.0916666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.9083333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.6333333333333" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f>ROW(A3)-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8">
         <v>43146</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>43150</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>11</v>
+      <c r="J3" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <f t="shared" ref="A4:A6" si="0">ROW(A4)-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8">
+        <v>43152</v>
+      </c>
+      <c r="I4" s="8">
+        <v>43152</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="10">
-        <v>43152</v>
-      </c>
-      <c r="I4" s="10">
-        <v>43152</v>
-      </c>
-      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="H5" s="8">
+        <v>43153</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
-        <v>14</v>
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1">
-      <c r="B12" s="8">
+    <row r="12" s="1" customFormat="1" spans="2:3">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="11">
         <f>COUNTIFS($F$3:$F$6,B12,$J$3:$J$6,"=OK")/COUNTIF($F$3:$F$6,B12)</f>
-        <v>0.33333333333333331</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1">
-      <c r="B13" s="8">
+    <row r="13" s="1" customFormat="1" spans="2:3">
+      <c r="B13" s="10">
         <f>B12+1</f>
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="11">
         <f>COUNTIFS($F$3:$F$6,B13,$J$3:$J$6,"=OK")/COUNTIF($F$3:$F$6,B13)</f>
         <v>0</v>
       </c>
@@ -779,14 +1337,13 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="PF">
+    <cfRule type="containsText" dxfId="0" priority="14" operator="between" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:A6">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -799,7 +1356,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{367C7A5C-2C1D-41F6-85D0-F390032585AF}</x14:id>
+          <x14:id>{fb813050-572e-44c8-81cf-504fa787ce4a}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -811,33 +1368,33 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5328F369-B253-4A24-B8A0-EB1CFFF15406}</x14:id>
+          <x14:id>{dedbd0e1-8d48-40a3-b58e-ccb69c83e7d3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="PF">
+    <cfRule type="containsText" dxfId="0" priority="9" operator="between" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="NOK">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:G3 B6:G6 A7:G1048576">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:J3 H6:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J6">
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="NOK">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="between" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -847,17 +1404,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J5">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{367C7A5C-2C1D-41F6-85D0-F390032585AF}">
+          <x14:cfRule type="dataBar" id="{fb813050-572e-44c8-81cf-504fa787ce4a}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -869,7 +1427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{5328F369-B253-4A24-B8A0-EB1CFFF15406}">
+          <x14:cfRule type="dataBar" id="{dedbd0e1-8d48-40a3-b58e-ccb69c83e7d3}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -885,4 +1443,20 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/poker/A-specs.xlsx
+++ b/poker/A-specs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git-space\poker\poker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nauyn\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
   <si>
     <t>Définition</t>
   </si>
@@ -30,18 +30,12 @@
     <t>Numéro</t>
   </si>
   <si>
-    <t>Titre</t>
-  </si>
-  <si>
     <t>Résumé</t>
   </si>
   <si>
     <t>Qui</t>
   </si>
   <si>
-    <t>Acceptation</t>
-  </si>
-  <si>
     <t>Début</t>
   </si>
   <si>
@@ -51,53 +45,172 @@
     <t>Test ?</t>
   </si>
   <si>
-    <t>1 carte</t>
-  </si>
-  <si>
     <t>1 carte pour main, pas de coulour et comparaison</t>
   </si>
   <si>
     <t>OK</t>
   </si>
   <si>
-    <t>2 cartes</t>
+    <t>Huang, Liu, Wu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cartes, pas de couleur,avec la comparaison</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cartes, pas de couleur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Difficulté (F,PF)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t># Release</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.1-2crt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.2-2cc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subversion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>2 cartes, avec la couleur et la comparaison</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.3-2ccc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>new feature</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Deux Paires</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Suite</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Paire, Brelan,carre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Full</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>avec couleur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Couleur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Quinte Flush</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Avancement des releases</t>
-  </si>
-  <si>
-    <t>Huang, Liu, Wu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cartes, pas de couleur,avec la comparaison</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cartes, pas de couleur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">5 cartes de 13 valeur </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2.4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original v1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release v2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1.4-5c13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release v3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Release v4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Difficulté (F,PF)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v1.0-1crt</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t># Release</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -134,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +260,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -171,11 +308,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -191,7 +365,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -201,7 +374,35 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -562,14 +763,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
+    <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="59.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
@@ -580,198 +782,538 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="4">
+    </row>
+    <row r="3" spans="1:10" s="14" customFormat="1">
+      <c r="A3" s="11">
         <f>ROW(A3)-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="16">
+        <v>0</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="19">
+        <v>43146</v>
+      </c>
+      <c r="I3" s="19">
+        <v>43150</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="11">
+        <f t="shared" ref="A4:A17" si="0">ROW(A4)-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="13">
+        <v>43152</v>
+      </c>
+      <c r="I4" s="13">
+        <v>43152</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="11">
-        <v>43146</v>
-      </c>
-      <c r="I3" s="11">
-        <v>43150</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="4">
-        <f t="shared" ref="A4:A6" si="0">ROW(A4)-2</f>
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="13">
+        <v>43153</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" s="14" customFormat="1">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" s="18" customFormat="1">
+      <c r="A13" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" s="1" customFormat="1">
+      <c r="A14" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B15" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="11">
+        <v>3</v>
+      </c>
+      <c r="G15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4">
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" s="14" customFormat="1">
+      <c r="A17" s="11">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" s="7">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <f>COUNTIFS($F$3,B23,$J$3,"=OK")/COUNTIF($F$3,B23)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <f>COUNTIFS($F$4:$F$7,B24,$J$4:$J$7,"=OK")/COUNTIF($F$4:$F$7,B24)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1">
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <f>COUNTIFS($F$3:$F$6,B12,$J$3:$J$6,"=OK")/COUNTIF($F$3:$F$6,B12)</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1">
-      <c r="B13" s="8">
-        <f>B12+1</f>
-        <v>2</v>
-      </c>
-      <c r="C13" s="9">
-        <f>COUNTIFS($F$3:$F$6,B13,$J$3:$J$6,"=OK")/COUNTIF($F$3:$F$6,B13)</f>
+      <c r="C25" s="8">
+        <f>COUNTIFS($F$9:$F$12,B25,$J$9:$J$12,"=OK")/COUNTIF($F$9:$F$12,B25)</f>
         <v>0</v>
       </c>
+      <c r="D25" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8">
+        <f>COUNTIFS($F$14:$F$16,B26,$J$14:$J$16,"=OK")/COUNTIF($F$14:$F$16,B26)</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="D27" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E17:J17"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="G6:G7 G9:G12 G14:G16">
     <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:A6">
+  <conditionalFormatting sqref="C7:G7 A4:A1048576 B18:G1048576 C9:G12 E8 C14:G16 E13 E17">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C13">
+  <conditionalFormatting sqref="C23:C26">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{367C7A5C-2C1D-41F6-85D0-F390032585AF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -781,18 +1323,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{5328F369-B253-4A24-B8A0-EB1CFFF15406}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{367C7A5C-2C1D-41F6-85D0-F390032585AF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -807,17 +1337,17 @@
       <formula>NOT(ISERROR(SEARCH("NOK",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G3 B6:G6 A7:G1048576">
+  <conditionalFormatting sqref="A1:G3 B6:G6 B7:B17">
     <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J3 H6:J1048576">
+  <conditionalFormatting sqref="H1:J3 H6:J7 H9:J12 H14:J16 H18:J1048576">
     <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J6">
+  <conditionalFormatting sqref="J3 J6:J7 J9:J12 J14:J16">
     <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",J3)))</formula>
     </cfRule>
@@ -838,16 +1368,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5328F369-B253-4A24-B8A0-EB1CFFF15406}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
           <x14:cfRule type="dataBar" id="{367C7A5C-2C1D-41F6-85D0-F390032585AF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -860,7 +1380,17 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C12:C13</xm:sqref>
+          <x14:cfRule type="dataBar" id="{5328F369-B253-4A24-B8A0-EB1CFFF15406}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C23:C26</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/poker/A-specs.xlsx
+++ b/poker/A-specs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="7956" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
   <si>
     <t>Définition</t>
   </si>
@@ -134,18 +134,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ajouter regle: Paire, Brelan,carre</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ajouter regle: Full</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>avec couleur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ajouter regle: Couleur</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -158,10 +150,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">5 cartes de 13 valeur </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>v2.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,14 +158,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>v2.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>v2.4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>v3.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -211,6 +191,73 @@
   </si>
   <si>
     <t>PF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Paire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 cartes avec 15 valeur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3 cartes avec 15 valeur        </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajouter regle: Carre</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ajouter regle: Brelan          </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 carte avec 15 valeur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 carte avec 15 valeur avec couleur</t>
+  </si>
+  <si>
+    <t>10 carte avec 15 valeur avec couleur</t>
+  </si>
+  <si>
+    <t>7 carte avec 15 valeur avec couleur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v4.2</t>
+  </si>
+  <si>
+    <t>v4.3</t>
+  </si>
+  <si>
+    <t>v4.4</t>
+  </si>
+  <si>
+    <t>v4.5</t>
+  </si>
+  <si>
+    <t>v4.6</t>
+  </si>
+  <si>
+    <t>v4.7</t>
+  </si>
+  <si>
+    <t>v4.8</t>
+  </si>
+  <si>
+    <t>Release v5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>v5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -371,9 +418,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,6 +436,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -400,14 +447,81 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -763,42 +877,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
-    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="34.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="21.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.6328125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.90625" customWidth="1"/>
+    <col min="5" max="5" width="34.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -829,161 +943,161 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="14" customFormat="1">
-      <c r="A3" s="11">
+    <row r="3" spans="1:10" s="13" customFormat="1">
+      <c r="A3" s="10">
         <f>ROW(A3)-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="15">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>43146</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>43150</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="11">
-        <f t="shared" ref="A4:A17" si="0">ROW(A4)-2</f>
+      <c r="A4" s="10">
+        <f t="shared" ref="A4:A24" si="0">ROW(A4)-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>43152</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="12">
         <v>43152</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="G5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="12">
         <v>43153</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="11" t="s">
+      <c r="D6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="G6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="11">
+      <c r="D7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="10">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" s="14" customFormat="1">
-      <c r="A8" s="11">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" s="13" customFormat="1">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
@@ -997,312 +1111,504 @@
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" s="17" customFormat="1">
+      <c r="A11" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1">
+      <c r="A12" s="10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="10">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" s="13" customFormat="1">
+      <c r="A15" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" s="1" customFormat="1">
+      <c r="A16" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="11">
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="10">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="10">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="10">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="10">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1">
+      <c r="A24" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="C30" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="B31" s="7">
+        <v>0</v>
+      </c>
+      <c r="C31" s="8">
+        <f>COUNTIFS($F$3,B31,$J$3,"=OK")/COUNTIF($F$3,B31)</f>
+        <v>1</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="B32" s="7">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <f>COUNTIFS($F$4:$F$7,B32,$J$4:$J$7,"=OK")/COUNTIF($F$4:$F$7,B32)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="11">
-        <v>2</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="11">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="11">
-        <v>2</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" s="18" customFormat="1">
-      <c r="A13" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
+      <c r="C33" s="8">
+        <f>COUNTIFS($F$9:$F$10,B33,$J$9:$J$10,"=OK")/COUNTIF($F$9:$F$10,B33)</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="25"/>
-    </row>
-    <row r="14" spans="1:10" s="1" customFormat="1">
-      <c r="A14" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="11">
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="11">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="11">
-        <v>3</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" spans="1:10" s="14" customFormat="1">
-      <c r="A17" s="11">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="7">
+      <c r="C34" s="8">
+        <f>COUNTIFS($F$12:$F$14,B34,$J$12:$J$14,"=OK")/COUNTIF($F$12:$F$14,B34)</f>
         <v>0</v>
       </c>
-      <c r="C23" s="8">
-        <f>COUNTIFS($F$3,B23,$J$3,"=OK")/COUNTIF($F$3,B23)</f>
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="B24" s="7">
-        <v>1</v>
-      </c>
-      <c r="C24" s="8">
-        <f>COUNTIFS($F$4:$F$7,B24,$J$4:$J$7,"=OK")/COUNTIF($F$4:$F$7,B24)</f>
-        <v>0.25</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="2">
-        <v>2</v>
-      </c>
-      <c r="C25" s="8">
-        <f>COUNTIFS($F$9:$F$12,B25,$J$9:$J$12,"=OK")/COUNTIF($F$9:$F$12,B25)</f>
+      <c r="D34" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="2">
+        <v>4</v>
+      </c>
+      <c r="C35" s="8">
+        <f>COUNTIFS($F$16:$F$23,B35,$J$16:$J$23,"=OK")/COUNTIF($F$16:$F$23,B35)</f>
         <v>0</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="B26" s="2">
-        <v>3</v>
-      </c>
-      <c r="C26" s="8">
-        <f>COUNTIFS($F$14:$F$16,B26,$J$14:$J$16,"=OK")/COUNTIF($F$14:$F$16,B26)</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="D27" s="10"/>
+      <c r="D35" s="9" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B17:D17"/>
+  <mergeCells count="10">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E15:J15"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="G6:G7 G9:G12 G14:G16">
-    <cfRule type="containsText" dxfId="8" priority="14" operator="containsText" text="PF">
+  <conditionalFormatting sqref="G6:G7 G9:G10 G12:G14">
+    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:G7 A4:A1048576 B18:G1048576 C9:G12 E8 C14:G16 E13 E17">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+  <conditionalFormatting sqref="C7:G7 C9:G10 E8 C12:G14 E11 E15 A4:A15 B7:B15 A25:A26 F25:G26 A27:G34 A36:G1048576">
+    <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23:C26">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="C31:C34">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -1314,7 +1620,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1328,37 +1634,98 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="PF">
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J5">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="NOK">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",J4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:G3 B6:G6 B7:B17">
-    <cfRule type="cellIs" dxfId="4" priority="15" operator="equal">
+  <conditionalFormatting sqref="A1:G3 B6:G6">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J3 H6:J7 H9:J12 H14:J16 H18:J1048576">
-    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
+  <conditionalFormatting sqref="H1:J3 H6:J7 H9:J10 H12:J14 H25:J34 H36:J1048576">
+    <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J6:J7 J9:J12 J14:J16">
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="NOK">
+  <conditionalFormatting sqref="J3 J6:J7 J9:J10 J12:J14">
+    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:G5">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="19" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J5">
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="17" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G23">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="PF">
+      <formula>NOT(ISERROR(SEARCH("PF",G16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:G23">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16:J23">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:J23">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="NOK">
+      <formula>NOT(ISERROR(SEARCH("NOK",J16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24 A24:B24">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35:G35">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9CB44186-40AA-4C61-A8C6-EE3F0136660C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FE6FABB-2A29-4FFD-AA17-C7E3B4232A44}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35:J35">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1390,7 +1757,32 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C23:C26</xm:sqref>
+          <xm:sqref>C31:C34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9CB44186-40AA-4C61-A8C6-EE3F0136660C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4FE6FABB-2A29-4FFD-AA17-C7E3B4232A44}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/poker/A-specs.xlsx
+++ b/poker/A-specs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="7956" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15870" windowHeight="7950" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Définition</t>
   </si>
@@ -218,16 +218,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>9 carte avec 15 valeur avec couleur</t>
-  </si>
-  <si>
-    <t>10 carte avec 15 valeur avec couleur</t>
-  </si>
-  <si>
-    <t>7 carte avec 15 valeur avec couleur</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>v4.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -247,17 +237,39 @@
     <t>v4.6</t>
   </si>
   <si>
-    <t>v4.7</t>
-  </si>
-  <si>
-    <t>v4.8</t>
-  </si>
-  <si>
     <t>Release v5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>v5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 carte avec 15 valeur avec couleur</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu, Huang</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang, Wu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu, Liu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang, Liu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu, Wu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu, Huang</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -877,21 +889,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="21.36328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="59.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="5" max="5" width="34.08984375" customWidth="1"/>
-    <col min="7" max="7" width="13.90625" customWidth="1"/>
-    <col min="8" max="8" width="12.6328125" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="34.125" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -978,7 +990,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="10">
-        <f t="shared" ref="A4:A24" si="0">ROW(A4)-2</f>
+        <f t="shared" ref="A4:A22" si="0">ROW(A4)-2</f>
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1035,7 +1047,9 @@
       <c r="H5" s="12">
         <v>43153</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="12">
+        <v>43153</v>
+      </c>
       <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10">
@@ -1195,7 +1209,7 @@
         <v>47</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>37</v>
@@ -1222,7 +1236,7 @@
         <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>38</v>
@@ -1249,7 +1263,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>44</v>
@@ -1295,10 +1309,10 @@
         <v>51</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F16" s="10">
         <v>4</v>
@@ -1322,10 +1336,10 @@
         <v>30</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F17" s="10">
         <v>4</v>
@@ -1349,10 +1363,10 @@
         <v>31</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F18" s="10">
         <v>4</v>
@@ -1373,13 +1387,13 @@
         <v>28</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F19" s="10">
         <v>4</v>
@@ -1403,10 +1417,10 @@
         <v>32</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="10">
         <v>4</v>
@@ -1430,10 +1444,10 @@
         <v>33</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="10">
         <v>4</v>
@@ -1445,156 +1459,102 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" s="13" customFormat="1">
       <c r="A22" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="10">
-        <v>4</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="10">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="10">
-        <v>4</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-    </row>
-    <row r="24" spans="1:10" s="13" customFormat="1">
-      <c r="A24" s="10">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="25"/>
+      <c r="B22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8">
+        <f>COUNTIFS($F$3,B29,$J$3,"=OK")/COUNTIF($F$3,B29)</f>
+        <v>1</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="C30" s="3" t="s">
-        <v>34</v>
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <f>COUNTIFS($F$4:$F$7,B30,$J$4:$J$7,"=OK")/COUNTIF($F$4:$F$7,B30)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="B31" s="7">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8">
+        <f>COUNTIFS($F$9:$F$10,B31,$J$9:$J$10,"=OK")/COUNTIF($F$9:$F$10,B31)</f>
         <v>0</v>
       </c>
-      <c r="C31" s="8">
-        <f>COUNTIFS($F$3,B31,$J$3,"=OK")/COUNTIF($F$3,B31)</f>
-        <v>1</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="B32" s="7">
-        <v>1</v>
+      <c r="B32" s="2">
+        <v>3</v>
       </c>
       <c r="C32" s="8">
-        <f>COUNTIFS($F$4:$F$7,B32,$J$4:$J$7,"=OK")/COUNTIF($F$4:$F$7,B32)</f>
-        <v>0.25</v>
+        <f>COUNTIFS($F$12:$F$14,B32,$J$12:$J$14,"=OK")/COUNTIF($F$12:$F$14,B32)</f>
+        <v>0</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C33" s="8">
-        <f>COUNTIFS($F$9:$F$10,B33,$J$9:$J$10,"=OK")/COUNTIF($F$9:$F$10,B33)</f>
+        <f>COUNTIFS($F$16:$F$21,B33,$J$16:$J$21,"=OK")/COUNTIF($F$16:$F$21,B33)</f>
         <v>0</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4">
-      <c r="B34" s="2">
-        <v>3</v>
-      </c>
-      <c r="C34" s="8">
-        <f>COUNTIFS($F$12:$F$14,B34,$J$12:$J$14,"=OK")/COUNTIF($F$12:$F$14,B34)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4">
-      <c r="B35" s="2">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8">
-        <f>COUNTIFS($F$16:$F$23,B35,$J$16:$J$23,"=OK")/COUNTIF($F$16:$F$23,B35)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:J22"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E15:J15"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G6:G7 G9:G10 G12:G14">
@@ -1602,12 +1562,12 @@
       <formula>NOT(ISERROR(SEARCH("PF",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:G7 C9:G10 E8 C12:G14 E11 E15 A4:A15 B7:B15 A25:A26 F25:G26 A27:G34 A36:G1048576">
+  <conditionalFormatting sqref="C7:G7 C9:G10 E8 C12:G14 E11 E15 A4:A15 B7:B15 A23:A24 F23:G24 A25:G32 A34:G1048576">
     <cfRule type="cellIs" dxfId="14" priority="12" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C34">
+  <conditionalFormatting sqref="C29:C32">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1648,7 +1608,7 @@
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:J3 H6:J7 H9:J10 H12:J14 H25:J34 H36:J1048576">
+  <conditionalFormatting sqref="H1:J3 H6:J7 H9:J10 H12:J14 H23:J32 H34:J1048576">
     <cfRule type="cellIs" dxfId="10" priority="21" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -1668,37 +1628,37 @@
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G23">
+  <conditionalFormatting sqref="G16:G21">
     <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="PF">
       <formula>NOT(ISERROR(SEARCH("PF",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16:G23">
+  <conditionalFormatting sqref="A16:G21">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H16:J23">
+  <conditionalFormatting sqref="H16:J21">
     <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:J23">
+  <conditionalFormatting sqref="J16:J21">
     <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="NOK">
       <formula>NOT(ISERROR(SEARCH("NOK",J16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24 A24:B24">
+  <conditionalFormatting sqref="E22 A22:B22">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A35:G35">
+  <conditionalFormatting sqref="A33:G33">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
+  <conditionalFormatting sqref="C33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -1724,7 +1684,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:J35">
+  <conditionalFormatting sqref="H33:J33">
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
@@ -1757,7 +1717,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C31:C34</xm:sqref>
+          <xm:sqref>C29:C32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9CB44186-40AA-4C61-A8C6-EE3F0136660C}">
@@ -1782,7 +1742,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C35</xm:sqref>
+          <xm:sqref>C33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
